--- a/experiments/pg/test/oracle_buffer.xlsx
+++ b/experiments/pg/test/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-2, 7, 1]</t>
+          <t>[-3, 7, 1]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.004741614679030282</v>
+        <v>-0.004741744232486082</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-2, 7, 7]</t>
+          <t>[-3, 7, 7]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.004743552941395496</v>
+        <v>-0.004743673966947994</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-7, 7, 4]</t>
+          <t>[-7, 4, 1]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.004743886194941605</v>
+        <v>-0.004689074834670989</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-7, 7, 7]</t>
+          <t>[0, 4, 1]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.004744937889462151</v>
+        <v>-0.004660592687285652</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-7, 5, 7]</t>
+          <t>[0, 2, 1]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.004729955468097037</v>
+        <v>-0.004167278646654123</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-1, 7, 1]</t>
+          <t>[-2, 7, 1]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.004741714140922167</v>
+        <v>-0.004741614679030271</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-1, 7, -2]</t>
+          <t>[-2, 7, -2]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.004742808810516584</v>
+        <v>-0.004742555589305</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-7, 7, 1]</t>
+          <t>[-7, 3, 1]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.004743455129988172</v>
+        <v>-0.004616372909593582</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-7, 7, 3]</t>
+          <t>[-7, -3, 1]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.004743668713283441</v>
+        <v>-0.004576304497893392</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-7, 7, -4]</t>
+          <t>[-7, -7, 1]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.004744228560851097</v>
+        <v>-0.004744123206695192</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-7, 3, -4]</t>
+          <t>[-7, 7, 1]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.004623414414401625</v>
+        <v>-0.00474345512998863</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.004744551772291937</v>
+        <v>-0.004744551772292383</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-7, 7, -5]</t>
+          <t>[-2, 7, 6]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.004744632034897682</v>
+        <v>-0.004743130291016288</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-7, 0, 1]</t>
+          <t>[-7, 7, -5]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.004172240221576863</v>
+        <v>-0.004744632034897682</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-7, 4, 1]</t>
+          <t>[-7, 0, -5]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.004689074834673509</v>
+        <v>-0.004240618754492494</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[-7, 4, 6]</t>
+          <t>[-7, 7, 7]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.004694130390949886</v>
+        <v>-0.004744937889461421</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-4, 7, 1]</t>
+          <t>[-7, 4, 7]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.004742035180717964</v>
+        <v>-0.004695321063907156</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-7, 5, 1]</t>
+          <t>[-7, 7, 5]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.00472693254288058</v>
+        <v>-0.004744187209637378</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-3, 7, 1]</t>
+          <t>[-5, 7, 5]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.004741744232486213</v>
+        <v>-0.004743352797475445</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-3, 7, -5]</t>
+          <t>[-7, 5, 1]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004744100293839915</v>
+        <v>-0.00472693254288058</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[-7, -2, 1]</t>
+          <t>[-4, 5, 1]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.004425408657570264</v>
+        <v>-0.004720961036640594</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[-7, 7, 0]</t>
+          <t>[-7, 7, -2]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.004743434405021139</v>
+        <v>-0.004743622444634871</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[-7, 6, 0]</t>
+          <t>[-7, 1, -2]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.004742458510845225</v>
+        <v>-0.004314117306657697</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[-7, 2, 1]</t>
+          <t>[-7, 7, 0]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.004491007628481175</v>
+        <v>-0.004743434405021139</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[-7, 2, 2]</t>
+          <t>[-7, 6, 0]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.004493956305332044</v>
+        <v>-0.004742458510845225</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[-7, 7, -1]</t>
+          <t>[-7, 1, 0]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.004743480376686799</v>
+        <v>-0.004307681063938499</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[-7, 1, -1]</t>
+          <t>[-7, 1, 1]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.00430860771676205</v>
+        <v>-0.004310704612568004</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[-7, 1, 1]</t>
+          <t>[-1, 1, 1]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.004310704612528867</v>
+        <v>-0.002843384416956173</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[-7, 1, 0]</t>
+          <t>[-1, 6, 1]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004307681063945843</v>
+        <v>-0.004740588300741257</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-7, 6, 4]</t>
+          <t>[-7, -1, 1]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004742961488676854</v>
+        <v>-0.004238872885023122</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0, 4, 1]</t>
+          <t>[-7, 7, 3]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.004660592687324015</v>
+        <v>-0.004743668713283951</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[-2, 6, 1]</t>
+          <t>[-7, 4, 3]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.004740475889370649</v>
+        <v>-0.004690384885148077</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-7, 7, -6]</t>
+          <t>[-3, 6, 1]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.004745046166798307</v>
+        <v>-0.004740597642613189</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[-7, 7, 2]</t>
+          <t>[0, 7, 3]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.004743527987209814</v>
+        <v>-0.004742146984395421</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-7, 4, 2]</t>
+          <t>[-2, 7, 3]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.004689552755303495</v>
+        <v>-0.004741987339806193</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[-7, 7, 5]</t>
+          <t>[0, 7, 1]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.004744187209636994</v>
+        <v>-0.004742105351738011</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[-7, 0, 5]</t>
+          <t>[-7, 2, 1]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.004226896779209546</v>
+        <v>-0.004491007628487358</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[-4, 7, -1]</t>
+          <t>[-7, 2, 6]</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.004742191348036181</v>
+        <v>-0.004515383185323583</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[-7, 7, -2]</t>
+          <t>[-7, 2, 5]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.004743622444634225</v>
+        <v>-0.004509468867680756</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[-7, 1, -2]</t>
+          <t>[-7, 0, 1]</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.004314117306761642</v>
+        <v>-0.004172240221612235</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[-1, 5, 1]</t>
+          <t>[-5, 0, 1]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.004718628137670153</v>
+        <v>-0.003537937724152861</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[-7, 6, 1]</t>
+          <t>[-5, 0, -2]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.004742447063413283</v>
+        <v>-0.003596330085494279</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[-7, 6, -4]</t>
+          <t>[-2, 7, -5]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.004743499401254718</v>
+        <v>-0.00474418602843466</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[-4, 0, 1]</t>
+          <t>[-7, 2, -4]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.002877006321688189</v>
+        <v>-0.004505635847109961</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[-7, 3, 1]</t>
+          <t>[-7, 7, -6]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.004616372909597785</v>
+        <v>-0.004745046166797462</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[-7, -4, 1]</t>
+          <t>[-7, 7, -7]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.004666910343897809</v>
+        <v>-0.004745365244550865</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[-7, 6, -5]</t>
+          <t>[-7, 3, 7]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.004743981874247987</v>
+        <v>-0.004629939765521991</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[0, 7, 1]</t>
+          <t>[-7, 0, 7]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.004742105351737782</v>
+        <v>-0.004261354535299407</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[-4, 7, 7]</t>
+          <t>[-7, 7, -1]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.004743877377189325</v>
+        <v>-0.004743480376687082</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[-6, 7, 1]</t>
+          <t>[-7, 4, 2]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.004742917790840369</v>
+        <v>-0.004689552755304492</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[-7, 2, 5]</t>
+          <t>[-7, 3, -5]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.004509468867685449</v>
+        <v>-0.00462747657943362</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[-2, 2, 1]</t>
+          <t>[-1, 7, 1]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.004190048997172935</v>
+        <v>-0.004741714140921715</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[-7, 0, 7]</t>
+          <t>[-7, 6, 1]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.004261354535211132</v>
+        <v>-0.004742447063412711</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[-7, 7, -3]</t>
+          <t>[-5, 6, 1]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.004743877877364836</v>
+        <v>-0.004741318202387931</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[-6, 7, -3]</t>
+          <t>[-5, 7, 1]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.004743532397587858</v>
+        <v>-0.004742437439643385</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[-7, 5, 0]</t>
+          <t>[-2, 1, 1]</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.004726939166219545</v>
+        <v>-0.003077595320733149</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[-7, -5, 1]</t>
+          <t>[0, 7, 6]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.004715625629276167</v>
+        <v>-0.004743156747276188</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[-4, 6, 1]</t>
+          <t>[-4, 7, 6]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.004740893242051523</v>
+        <v>-0.004743455419460954</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[-7, 4, 0]</t>
+          <t>[-7, 7, 4]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.004688982435266149</v>
+        <v>-0.00474388619494271</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[-5, 7, 1]</t>
+          <t>[-7, 4, -4]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.004742437439643667</v>
+        <v>-0.004692593645671032</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[-5, 2, 1]</t>
+          <t>[-7, 3, 5]</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.004371316842613767</v>
+        <v>-0.004624703554268896</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[-1, 7, 6]</t>
+          <t>[-2, 3, 5]</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.004743098259598664</v>
+        <v>-0.004531609315270798</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[-7, 6, 6]</t>
+          <t>[-7, 5, -4]</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.004743751158814103</v>
+        <v>-0.004728774492808907</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[-7, 1, -6]</t>
+          <t>[0, 7, 5]</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.004379576511243568</v>
+        <v>-0.004742765310579215</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[-7, 1, 3]</t>
+          <t>[-7, 7, 2]</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.004325725023041309</v>
+        <v>-0.004743527987209672</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[-7, -3, 1]</t>
+          <t>[-7, 6, 5]</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.004576304497922719</v>
+        <v>-0.004743329204641353</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[-7, 1, -5]</t>
+          <t>[-2, 6, 5]</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.004358264334360668</v>
+        <v>-0.004741593819778211</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[-3, 1, 1]</t>
+          <t>[-6, 7, 1]</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.003413403052202837</v>
+        <v>-0.004742917790842154</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[-7, 1, 6]</t>
+          <t>[-7, 7, -4]</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.004360369062550227</v>
+        <v>-0.004744228560851038</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[-7, 1, 5]</t>
+          <t>[-7, 7, -3]</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.004348270039905543</v>
+        <v>-0.004743877877364378</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[-6, 7, -4]</t>
+          <t>[-2, 7, -3]</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.004743978333351302</v>
+        <v>-0.004743151701416743</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[1, 7, 1]</t>
+          <t>[-4, 7, 1]</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.004742707943625348</v>
+        <v>-0.004742035180718086</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[-7, 4, 5]</t>
+          <t>[-4, 1, 1]</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.004692804671337609</v>
+        <v>-0.003725823226167767</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[-5, 7, -4]</t>
+          <t>[-4, 1, 4]</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.004743798754904248</v>
+        <v>-0.003739542224074308</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[-7, -1, 1]</t>
+          <t>[-7, 1, 2]</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.004238872885015568</v>
+        <v>-0.00431693715553708</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[-7, 0, -2]</t>
+          <t>[-7, 1, -3]</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.004175700872241042</v>
+        <v>-0.004324402530266446</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[-7, 3, 2]</t>
+          <t>[-4, 7, -1]</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.004617594279282873</v>
+        <v>-0.004742191348036595</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[-7, 0, -5]</t>
+          <t>[-5, 7, -3]</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.004240618754294727</v>
+        <v>-0.004743259056341938</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[-7, 3, -5]</t>
+          <t>[-7, 1, -5]</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.004627476579421276</v>
+        <v>-0.004358264334360668</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[-7, 2, 4]</t>
+          <t>[-7, 1, 4]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.00450361820513277</v>
+        <v>-0.004336411453784589</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[-7, 6, -3]</t>
+          <t>[-7, 2, 4]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.004743064344777999</v>
+        <v>-0.00450361820511846</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[-7, 2, 7]</t>
+          <t>[-7, 5, 4]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.004520908672580034</v>
+        <v>-0.004727983920528502</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[-7, 5, 4]</t>
+          <t>[-5, 7, -4]</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.004727983920529494</v>
+        <v>-0.004743798754902612</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[-3, 7, 3]</t>
+          <t>[-4, 7, -4]</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.004742137169097831</v>
+        <v>-0.004743674898721836</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[-7, 0, 6]</t>
+          <t>[-3, 1, 1]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.004244770173752526</v>
+        <v>-0.003413403051838103</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[-7, -7, 1]</t>
+          <t>[-7, 2, 2]</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.00474412320669518</v>
+        <v>-0.004493956305343055</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[0, 1, 1]</t>
+          <t>[0, 2, 2]</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.002879499799829918</v>
+        <v>-0.004166353201566409</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[-7, 5, -2]</t>
+          <t>[-7, -2, 1]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.00472747974150454</v>
+        <v>-0.004425408657577481</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[-7, 5, 3]</t>
+          <t>[6, 7, 1]</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.004727460458399142</v>
+        <v>-0.004744870588947512</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[-6, 1, 1]</t>
+          <t>[3, 7, 1]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.00416675542402262</v>
+        <v>-0.00474371848465863</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[-7, 6, 7]</t>
+          <t>[-6, 7, -4]</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.004744172297795664</v>
+        <v>-0.004743978333351703</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[-7, 7, -7]</t>
+          <t>[-6, 7, -7]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.004745365244549088</v>
+        <v>-0.004745086919011794</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[-2, 0, 1]</t>
+          <t>[2, 7, 1]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0007100789859964074</v>
+        <v>-0.004743247126267662</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[-7, 2, -4]</t>
+          <t>[-7, -7, -5]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.004505635847177179</v>
+        <v>-0.004745316536141084</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[-7, 4, -5]</t>
+          <t>[-7, -3, -5]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.004694429968589722</v>
+        <v>-0.004586823647256947</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[-7, 6, -6]</t>
+          <t>[-7, 2, 7]</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.004744420786770612</v>
+        <v>-0.004520908672559759</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[-3, 4, 1]</t>
+          <t>[-7, -1, 7]</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.004664452742547238</v>
+        <v>-0.004310473397484181</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[-5, 0, 1]</t>
+          <t>[-2, 2, 1]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.003537937724303039</v>
+        <v>-0.004190048997044577</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[0, 2, 1]</t>
+          <t>[-7, -4, -3]</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.004167278646535495</v>
+        <v>-0.004667920712103074</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[-3, 0, 1]</t>
+          <t>[-7, 6, -6]</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.001652633505268472</v>
+        <v>-0.004744420786774337</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[-7, 2, -6]</t>
+          <t>[-7, 2, 3]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.00452503468393298</v>
+        <v>-0.004498291952680037</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[-4, 1, 1]</t>
+          <t>[-4, 7, 2]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.003725823226198613</v>
+        <v>-0.004742169568599944</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[-7, 5, -3]</t>
+          <t>[-2, 6, 1]</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.004728031238852994</v>
+        <v>-0.004740475889371164</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[-4, 3, 1]</t>
+          <t>[-7, 6, -4]</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.004556314305117022</v>
+        <v>-0.004743499401254864</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[-7, 6, 3]</t>
+          <t>[-5, 7, -2]</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-0.004742685284575331</v>
+        <v>-0.004742818802149581</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[-2, 7, 3]</t>
+          <t>[-7, -6, 0]</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.004741987339806506</v>
+        <v>-0.00473813967980037</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[-2, 7, -4]</t>
+          <t>[-7, -3, -2]</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-0.004743716754858835</v>
+        <v>-0.00457674028260362</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[-7, 4, -3]</t>
+          <t>[-3, 2, 1]</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.004691095403544823</v>
+        <v>-0.004242213818010901</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[-2, 7, -5]</t>
+          <t>[-3, -5, 1]</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.004744186028436331</v>
+        <v>-0.004701917884965508</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[-7, 3, -3]</t>
+          <t>[3, 7, 3]</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.004620190426787882</v>
+        <v>-0.004743969365666581</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[0, 7, -5]</t>
+          <t>[-7, -4, 1]</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.004744501656546486</v>
+        <v>-0.004666910343899406</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[0, 7, -4]</t>
+          <t>[-2, -4, 1]</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-0.004744159510553281</v>
+        <v>-0.00461871320837081</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[-1, 1, 1]</t>
+          <t>[-7, 5, 3]</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.002843384416058022</v>
+        <v>-0.004727460458400296</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[-7, 5, 6]</t>
+          <t>[-7, 0, 0]</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-0.004729313724853372</v>
+        <v>-0.004167593083565574</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[-7, 2, -3]</t>
+          <t>[-2, 7, 7]</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.004498471182333639</v>
+        <v>-0.004743552941396239</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[0, 0, 1]</t>
+          <t>[-7, 5, -3]</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.00352337977350504</v>
+        <v>-0.004728031238854129</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[-2, 7, 4]</t>
+          <t>[-7, 6, -2]</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-0.004742322955669655</v>
+        <v>-0.004742745411687721</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[-7, 0, 2]</t>
+          <t>[-4, 3, 1]</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.004181217961565199</v>
+        <v>-0.004556314305115802</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[-1, 2, 1]</t>
+          <t>[-7, 5, 2]</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.004161302641181832</v>
+        <v>-0.004727103371735265</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[-7, 4, 7]</t>
+          <t>[-7, 6, 7]</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.004695321063901381</v>
+        <v>-0.004744172297795664</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[-7, 1, -3]</t>
+          <t>[-7, 1, 7]</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.004324402530323488</v>
+        <v>-0.004371637127755269</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[-7, -6, 1]</t>
+          <t>[-7, 4, -6]</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.004738180841233766</v>
+        <v>-0.004696350376067855</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[-7, 2, 6]</t>
+          <t>[-6, 5, 1]</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.004515383185321641</v>
+        <v>-0.004724666334730886</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[-1, 0, 1]</t>
+          <t>[-2, 6, -4]</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.004047639730765479</v>
+        <v>-0.004742606630323716</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[-1, 6, 1]</t>
+          <t>[-7, 6, 4]</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-0.00474058830074198</v>
+        <v>-0.004742961488676583</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[-6, 4, 1]</t>
+          <t>[-7, 4, 0]</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.004681797349041373</v>
+        <v>-0.004688982435267943</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[-7, 6, 5]</t>
+          <t>[4, 2, 1]</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.004743329204640658</v>
+        <v>-0.004397453106096012</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[-7, 0, 0]</t>
+          <t>[-5, 7, 3]</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.004167593083512307</v>
+        <v>-0.004742748194951141</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[-7, 0, -6]</t>
+          <t>[-7, -5, 5]</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.004272145849732007</v>
+        <v>-0.004717373103970166</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[-1, 3, 1]</t>
+          <t>[-3, 0, 1]</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.004521929576412609</v>
+        <v>-0.001652633505142718</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[-5, 6, 1]</t>
+          <t>[-7, 2, -5]</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.004741318202387761</v>
+        <v>-0.00451476387508072</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[-3, 7, -2]</t>
+          <t>[-7, 6, -1]</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.004742460829354833</v>
+        <v>-0.004742550516168595</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[-3, 2, 1]</t>
+          <t>[-5, 3, 1]</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.0042422138179526</v>
+        <v>-0.004575292563591237</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[-2, 1, 1]</t>
+          <t>[-1, 2, 1]</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.003077595318942843</v>
+        <v>-0.004161302640801648</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[-4, 2, 1]</t>
+          <t>[-6, 0, 1]</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-0.004305636353319005</v>
+        <v>-0.003926288716385109</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[-7, 1, 4]</t>
+          <t>[-7, 6, 2]</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.004336411453818827</v>
+        <v>-0.004742517494192008</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[-7, 3, -1]</t>
+          <t>[-3, 7, 2]</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.004616450756491887</v>
+        <v>-0.004741885637421775</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[-7, 3, -6]</t>
+          <t>[-3, 7, -4]</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.00463196322274596</v>
+        <v>-0.004743622619140111</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[-6, 5, 1]</t>
+          <t>[-3, 2, -4]</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.004724666334731351</v>
+        <v>-0.004259392378906991</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[-7, 5, -5]</t>
+          <t>[5, 7, 1]</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.004729642585011522</v>
+        <v>-0.00474454782748485</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[-7, 6, -1]</t>
+          <t>[-7, 0, 6]</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.004742550516168875</v>
+        <v>-0.00424477017375339</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[-6, 0, 1]</t>
+          <t>[-7, 3, 6]</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.003926288716322857</v>
+        <v>-0.004627433225687168</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[-7, 0, -4]</t>
+          <t>[-7, 1, 5]</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.004212413707592225</v>
+        <v>-0.004348270039900048</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[-5, 1, 1]</t>
+          <t>[-7, -5, 1]</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.003976060200557991</v>
+        <v>-0.004715625629275036</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[-7, 3, 5]</t>
+          <t>[-7, 4, 6]</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.004624703554265122</v>
+        <v>-0.004694130390948802</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[-4, 7, -6]</t>
+          <t>[-7, -2, 6]</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-0.004744493660395969</v>
+        <v>-0.004454014143134282</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[-7, 2, -1]</t>
+          <t>[-3, 7, -5]</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-0.00449050544805327</v>
+        <v>-0.004744100293840464</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[-4, 4, 1]</t>
+          <t>[3, 7, -5]</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.004669218224648006</v>
+        <v>-0.004744974413702498</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[-7, 0, 4]</t>
+          <t>[-7, 0, 3]</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.004209414290766735</v>
+        <v>-0.004193833540296326</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[0, 6, 1]</t>
+          <t>[-7, -6, 1]</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.00474099160580166</v>
+        <v>-0.004738180841233575</v>
       </c>
     </row>
     <row r="152">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[-7, 4, -4]</t>
+          <t>[-7, 3, -3]</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.004692593645674039</v>
+        <v>-0.004620190426787882</v>
       </c>
     </row>
     <row r="153">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[-6, 7, 6]</t>
+          <t>[-4, 7, 7]</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.004744113265615975</v>
+        <v>-0.004743877377189508</v>
       </c>
     </row>
     <row r="154">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[-6, 3, 1]</t>
+          <t>[-3, 7, -1]</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.004595631521179054</v>
+        <v>-0.00474199843302305</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[0, 7, -2]</t>
+          <t>[-5, 4, 1]</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.004743178694826836</v>
+        <v>-0.00467509676958654</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[-1, 7, -6]</t>
+          <t>[-2, 7, 4]</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.004744637371472265</v>
+        <v>-0.004742322955669797</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[-7, 0, -3]</t>
+          <t>[-5, 7, 4]</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.004190478404244643</v>
+        <v>-0.004743015375875607</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[-1, 4, 1]</t>
+          <t>[-6, 6, 1]</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-0.004659733472832786</v>
+        <v>-0.004741842720258735</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[-2, 5, 1]</t>
+          <t>[-3, 3, 1]</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.004718838531534613</v>
+        <v>-0.004539970834023666</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[-7, 0, 3]</t>
+          <t>[-7, 6, -5]</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-0.00419383354027902</v>
+        <v>-0.004743981874248222</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[-7, 3, 7]</t>
+          <t>[-7, -3, -6]</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.004629939765518794</v>
+        <v>-0.004592373597207627</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +2531,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[-7, 4, 4]</t>
+          <t>[-3, 7, -2]</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-0.004691505867275901</v>
+        <v>-0.004742460829353242</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[-5, 5, 1]</t>
+          <t>[-2, 3, 1]</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-0.004722655735934216</v>
+        <v>-0.004527886230131436</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +2557,3599 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>[-2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.003878516559913415</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[-7, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.004689994084454782</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[-7, -6, -5]</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.004739364717580224</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[-1, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.004698963900871334</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[-7, 1, -1]</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.004308607716736481</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[-7, -6, -1]</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.004738183582924716</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[-7, 6, 3]</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.004742685284576056</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[-2, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.004718838531527643</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[-2, 5, 7]</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.004721083849223312</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[-5, 2, 1]</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.004371316842602134</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[-7, 2, 0]</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.004489763052805693</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[-7, 5, 0]</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.004726939166220094</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[-7, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.004272145849622778</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[-7, 0, -7]</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.004288637630654296</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[-7, 0, 2]</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.004181217961593691</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[-2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0007100789819521192</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[-7, 0, -2]</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.0041757008722488</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[-7, -5, -2]</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.004715735777375012</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[-6, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.004166755423917481</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[-6, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.004339654695641217</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[-7, 5, 5]</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.004728626244368246</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[-6, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.004681797349041231</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[-5, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.003976060200438196</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[-7, 3, -6]</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>-0.004631963222746216</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[-7, 3, -7]</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.004634528780857263</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[-5, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.004744296928486239</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[-5, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.004069410548827629</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[-5, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.004237631177636298</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[-7, 1, 3]</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.004325725023071651</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[-5, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.004511686845220792</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[-7, 2, -1]</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.004490505448060567</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[-7, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.004694429968592552</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[-7, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.004190478404309196</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[-7, 5, 7]</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.004729955468097009</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>[-7, -4, 4]</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.004669409035187962</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>[-7, 1, 6]</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.00436036906254585</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[-7, 4, 5]</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.004692804671340253</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[-7, 0, 5]</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.004226896779223119</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.002879499800124216</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[0, 6, 1]</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>-0.004740991605802354</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>[-7, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.004744712323571375</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[-4, 2, 6]</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>-0.004317659298451471</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[-3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.003994361322028957</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[-3, 7, 6]</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>-0.004743249922311637</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.003523379693554878</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>[0, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.004699328591889383</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[-2, 1, 4]</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.003127484929677642</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[-7, -1, 3]</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.004255574395391095</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[-5, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>-0.004735906499254982</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>[-7, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.004525034683967203</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[1, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>-0.004742707943625211</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[1, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.004743157936341251</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[-7, -2, 0]</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>-0.004423816887476817</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[-5, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.00474462962484273</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[-7, -1, -1]</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>-0.004235737230588902</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[-7, 2, -3]</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.004498471182331647</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[-7, 3, 0]</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>-0.004615962156851142</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[-4, 2, 1]</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.004305636353325492</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[-7, -7, -6]</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>-0.004745681017762368</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[-7, -5, -5]</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.004717546471710754</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>[-1, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.004733541980944343</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>[-7, 5, -1]</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.004727119462732564</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[2, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.003542262898349185</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[-7, -1, 5]</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.00428220526622693</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[-7, -4, 7]</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>-0.004673194035606584</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>[-7, -5, 2]</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>-0.004715870554124001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[-7, -6, 3]</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.004738523718424778</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[-2, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.004699929421326966</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[-7, -2, -6]</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.004464436265619813</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>[-1, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.004659733472826975</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[-1, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.004663929364793879</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[-7, -3, 6]</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.004588335907638587</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[-7, 3, -2]</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.004617865363674601</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[-7, -6, -3]</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.004738572914678957</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[-3, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.004664452742548485</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>[-7, -5, 7]</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>-0.004718444407833007</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[-2, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>-0.00473368377136538</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[-7, -4, -5]</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.004671196438495105</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[-7, -6, 4]</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>-0.00473880873527821</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[-6, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.004711649403520552</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[-7, -5, 4]</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.004716786137038733</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[-6, 2, 1]</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.0044339608066349</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[-7, -1, 6]</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>-0.004296837833002352</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[-7, -3, 0]</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>-0.004575683923594308</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[-7, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>-0.004729642585013023</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[-7, -1, -5]</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>-0.004292497108581652</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.004523818032731235</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[-6, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>-0.00404411354159886</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>[-3, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>-0.00471965651244145</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[-4, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>-0.004669218224629926</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[-4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.004120225840937738</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[-7, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.004616450756495256</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[-3, 0, 0]</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.001667607107155646</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[-7, -4, 3]</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.004668296503146666</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[-5, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.004644304863924745</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.002175835003561056</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>[-1, 3, 1]</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.004521929576455023</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[-7, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.004623414414410695</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[-7, -4, -4]</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.004669284561868798</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[-7, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>-0.004212413707569861</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>[-1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.003805784396260874</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>[-2, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.004661153813266986</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[-6, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.004544553036845386</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[-1, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>-0.004718628137672124</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[-7, 1, -6]</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.00437957651117872</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>[-3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>-0.002685205622188955</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[-5, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.004722655735934485</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[-5, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>-0.00474322289924884</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[-6, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>-0.004736993877480866</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[-7, -4, 0]</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>-0.004666654733338497</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[-1, 1, -6]</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>-0.003017230294912993</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>[-6, 3, 1]</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>-0.004595631521178197</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[-2, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>-0.003118547704266386</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[0, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>-0.004615755217865712</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>[-6, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>-0.004655386343800898</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[-3, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.004449297358824415</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[-3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.003416388926110104</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[2, 2, 1]</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.004270919183730244</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.004047639686513136</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[-7, -5, 6]</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.004717948157797079</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[0, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>-0.001052870703375629</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[-4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>-0.002877006321713793</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[-2, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.004744539242874666</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[-2, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.0001035897999336277</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[-7, -7, 0]</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>-0.004744110671267286</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>[0, -2, 1]</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>-0.003812813974724911</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[-7, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>-0.004339268392877513</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>[3, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.003831862264324272</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>[-4, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>-0.003332525730055727</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[-2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.001786658562698325</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>[-4, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>-0.004704661318046545</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>[-5, -5, 1]</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>-0.004707955670585826</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>[5, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>-0.004212556449976656</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[-7, -6, 7]</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>-0.004739733663909179</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>[6, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>-0.004333502968610506</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>[0, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>-0.004733877460497572</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>[4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>-0.003690321041602156</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>[3, 6, 1]</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>-0.004742636277161741</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[-2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.0007280521350021018</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>[-2, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.003142244528695241</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>[-2, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.004742515955462052</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>[-2, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.0003054494738625368</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>[-1, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.001601022738673448</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>[-4, 6, 1]</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.00474089324205173</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>[3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.003160591579058588</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>[-2, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>-0.00442547066524374</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>[-3, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>-0.00473418866264769</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>[-4, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.004742872240026777</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[-3, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.004625320742174283</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>[-2, 0, 6]</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>-0.0001522784783005326</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>[-1, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.004615192068586073</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[4, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>-0.004744161319884123</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>[-4, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.004479164476743095</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>[-3, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.003462976521484356</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>[-1, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.004412051600599466</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>[4, 6, 1]</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.004743103723112891</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>[0, 4, 5]</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>-0.004661874619856702</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>[1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>-0.0001043168085389229</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[-1, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>-0.004744333245709918</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>[-1, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.001897098141731269</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.003185298900019663</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>[0, 5, 1]</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>-0.004719145573301939</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>[-1, 0, -1]</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.003662033911111907</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>[-4, -4, 1]</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>-0.004634096075592654</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>[-3, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.004744479067669277</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>[-2, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.003154381687547789</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>[-4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.002890539942320537</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>[0, -3, 1]</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.004413499087921663</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>[-1, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>-0.00474261421945916</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>[-3, 7, 4]</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>-0.004742459621413823</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>[-3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>-0.001770977124780136</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[-4, -6, 1]</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>-0.004734954381476622</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>[-1, 7, 7]</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>-0.004743513777174703</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>[-3, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>-0.001751203223659138</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>[-7, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>-0.004730471470081884</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>[-3, 0, 6]</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.001907475075946026</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>[0, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>-0.004742975803277351</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>[-3, 0, -1]</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>-0.001725626456070419</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>[5, 0, 1]</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>-0.004004892461004172</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[-3, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.00474262207039716</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>[-1, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.004743917384138959</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>[-1, 1, -4]</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.002966478618659998</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>[-1, 0, 4]</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.002709715049996449</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>[-7, -4, 2]</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.00466745439654563</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>[0, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.001482405438254524</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>[-3, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.001787103840629663</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>[-3, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>-0.0018952708043323</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[-3, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>-0.001853426880086709</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[-6, -7, 1]</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>-0.004743645746212907</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>[-5, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.003691299743161097</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[-1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>-0.0009599357853640622</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>[-3, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.004741762784115719</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>[-7, 0, -1]</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.004168315535828968</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[0, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.001151031928819115</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[-3, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>-0.001979263520600542</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[-1, 1, 7]</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>-0.00300270925073444</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>[-1, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>-0.004744637371471695</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[-1, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.004744864251206729</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>[-5, -1, 1]</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.003759985249996505</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[-2, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.0002142749219192164</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[-3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.001671732190075701</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
           <t>[0, 7, -6]</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>-0.004744750986300447</v>
+      <c r="C365" t="n">
+        <v>-0.004744750986299997</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[0, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.004722003245149632</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[-3, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>-0.004669108754613075</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>[0, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.001829622974044508</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>[-5, 0, 3]</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.003549777865598216</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>[0, 0, -6]</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.0009283791806880004</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>[-5, 7, 7]</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>-0.004744161337039476</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>[-5, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>-0.003652249950506518</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[-2, 7, 2]</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>-0.004741732982375444</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[-1, 7, 2]</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>-0.004741759262541036</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>[-2, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>-0.004665859961108143</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>[-2, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.0003830967788448869</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[-2, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>-0.004742025829341712</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>[-2, 0, -1]</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0006164037159273872</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>[-1, 0, -3]</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.002724768220672233</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>[-3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>-0.001713922021867282</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>[-6, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>-0.004026426862791754</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>[-5, 0, -5]</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>-0.003719268936446649</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>[-4, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>-0.003094009430138531</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>[-7, 0, 4]</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>-0.004209414290764613</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>[-3, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>-0.004723052267572629</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>[-2, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>-0.004741696959359417</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[-4, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>-0.004744493660395348</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>[-4, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>-0.004744779657071593</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>[-3, 0, -2]</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>-0.001823363141836373</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>[-1, 5, 2]</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>-0.004718691181539682</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>[-3, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>-0.004744764758650021</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>[-1, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>-0.004743387763151458</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>[-1, 3, -1]</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>-0.004523785693958285</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>[-2, 0, 4]</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.000212535233499701</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[-1, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.002272245590149086</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>[-3, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>-0.004743058221841416</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>[-3, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>-0.004722633888592918</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>[-1, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>-0.004742289822997871</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>[-1, 4, -1]</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>-0.004660686072443221</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>[-2, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.0003137037964741296</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>[-2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.0005870988126369881</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>[-2, 0, -2]</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.0004585478128594178</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>[-1, 7, 5]</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>-0.004742685071501723</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>[-1, 0, 5]</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.00222290256910817</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>[-1, 7, 4]</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>-0.00474229988781117</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>[-1, 5, 4]</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>-0.004719372696418856</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>[-1, 0, 3]</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.003242539312662778</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>[-1, 0, -2]</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.003209784689326351</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>[0, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>-0.004744159510553377</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[0, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.001447062165279129</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[-1, 6, 7]</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>-0.004742397311715072</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>[-1, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>-0.004188662575172222</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>[-1, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>-0.004721918780347538</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>[-1, 7, 3]</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>-0.004741977221474552</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>[-1, 6, 3]</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>-0.00474086191340632</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>[5, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>-0.004745182805996181</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>[0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.003153329487361232</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>[-1, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>-0.004743469924652409</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>[-2, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>-0.004721855623162827</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>[-1, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>-0.004742808810516378</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>[-1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.004011011771366606</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>[-2, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>-0.004665307792085001</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>[-5, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>-0.004742537387392024</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>[-5, 0, -1]</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>-0.003565047683963389</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>[-6, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>-0.004744863724006125</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>[-1, 0, 2]</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.003738418931067973</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[-2, 3, -3]</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>-0.004532760107826267</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>[-1, 1, 4]</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>-0.002913152552394811</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>[-1, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>-0.004721568679642954</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>[-1, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>-0.004741898478229886</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>[-5, 5, 7]</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>-0.004725186220365592</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>[-2, 7, 5]</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>-0.004742712507518354</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[-2, 0, 5]</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>2.167074302879657e-05</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>[-1, 3, -6]</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>-0.004531040297854936</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>[0, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>-0.004744944498406154</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>[-1, 0, 7]</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.001482508051071455</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[-1, 4, 4]</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>-0.004660895412465485</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>[1, 6, 1]</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>-0.004741606089518964</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>[-1, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>-0.004664444751601606</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>[-1, 1, -5]</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>-0.002994438177812259</v>
       </c>
     </row>
   </sheetData>
